--- a/config_11.2/game_module_config.xlsx
+++ b/config_11.2/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="1037">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4022,6 +4022,17 @@
   </si>
   <si>
     <t>sys_act_base_style/sys_act_base_weekly_039</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_hghd_001</t>
+  </si>
+  <si>
+    <t>回归活动皮肤</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -4687,13 +4698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I350"/>
+  <dimension ref="A1:I351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C306" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D339" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B321" sqref="B321"/>
+      <selection pane="bottomRight" activeCell="I350" sqref="I350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13597,24 +13608,48 @@
         <v>349</v>
       </c>
       <c r="B350" s="8" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C350" s="59" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D350" s="59"/>
+      <c r="E350" s="5">
+        <v>1</v>
+      </c>
+      <c r="F350" s="5">
+        <v>1</v>
+      </c>
+      <c r="G350" s="5">
+        <v>1</v>
+      </c>
+      <c r="I350" s="57" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
+      <c r="A351" s="5">
+        <v>350</v>
+      </c>
+      <c r="B351" s="8" t="s">
         <v>1029</v>
       </c>
-      <c r="C350" s="59" t="s">
+      <c r="C351" s="59" t="s">
         <v>1030</v>
       </c>
-      <c r="D350" s="59" t="s">
+      <c r="D351" s="59" t="s">
         <v>1031</v>
       </c>
-      <c r="E350" s="5">
-        <v>1</v>
-      </c>
-      <c r="F350" s="5">
-        <v>1</v>
-      </c>
-      <c r="G350" s="5">
-        <v>1</v>
-      </c>
-      <c r="I350" s="57" t="s">
+      <c r="E351" s="5">
+        <v>1</v>
+      </c>
+      <c r="F351" s="5">
+        <v>1</v>
+      </c>
+      <c r="G351" s="5">
+        <v>1</v>
+      </c>
+      <c r="I351" s="57" t="s">
         <v>1032</v>
       </c>
     </row>
